--- a/Scenarios.xlsx
+++ b/Scenarios.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="WWR per cluster" sheetId="1" r:id="rId1"/>
-    <sheet name="WWR Privwpha" sheetId="6" r:id="rId2"/>
-    <sheet name="WWR Subwpha" sheetId="7" r:id="rId3"/>
-    <sheet name="WWR Freewpha" sheetId="8" r:id="rId4"/>
-    <sheet name="WWR Lowwpc" sheetId="9" r:id="rId5"/>
-    <sheet name="WWR Highwpc" sheetId="10" r:id="rId6"/>
+    <sheet name="Priv ag water - Low pop water" sheetId="6" r:id="rId2"/>
+    <sheet name="Priv ag water - High pop water" sheetId="10" r:id="rId3"/>
+    <sheet name="Sub ag water - Low pop water" sheetId="12" r:id="rId4"/>
+    <sheet name="Sub ag water - High pop water" sheetId="7" r:id="rId5"/>
+    <sheet name="Free ag water - Low pop water" sheetId="13" r:id="rId6"/>
+    <sheet name="Free ag water - High pop water" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="26">
   <si>
     <t>StartYear</t>
   </si>
@@ -759,11 +760,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1149,10 +1150,10 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1535,10 +1536,10 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1653,10 +1654,10 @@
         <v>6007653.6288199332</v>
       </c>
       <c r="H2" s="4">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I2" s="4">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J2" s="3">
         <v>237485</v>
@@ -1665,7 +1666,7 @@
         <v>237485</v>
       </c>
       <c r="L2" s="3">
-        <v>15334</v>
+        <v>10512</v>
       </c>
       <c r="M2" s="4">
         <f>1.1/1.04</f>
@@ -1724,10 +1725,10 @@
         <v>874281.88973430567</v>
       </c>
       <c r="H3" s="4">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I3" s="4">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J3" s="3">
         <v>56547</v>
@@ -1736,7 +1737,7 @@
         <v>56547</v>
       </c>
       <c r="L3" s="3">
-        <v>15334</v>
+        <v>10512</v>
       </c>
       <c r="M3" s="4">
         <f>1.1/1.04</f>
@@ -1795,10 +1796,10 @@
         <v>2150843.5471125906</v>
       </c>
       <c r="H4" s="4">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I4" s="4">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J4" s="3">
         <v>175497</v>
@@ -1807,7 +1808,7 @@
         <v>175497</v>
       </c>
       <c r="L4" s="3">
-        <v>15334</v>
+        <v>10512</v>
       </c>
       <c r="M4" s="4">
         <f>1.1/1.04</f>
@@ -1918,13 +1919,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2051,7 +2052,7 @@
         <v>237485</v>
       </c>
       <c r="L2" s="3">
-        <v>21215</v>
+        <v>15334</v>
       </c>
       <c r="M2" s="4">
         <f>1.1/1.04</f>
@@ -2122,7 +2123,7 @@
         <v>56547</v>
       </c>
       <c r="L3" s="3">
-        <v>21215</v>
+        <v>15334</v>
       </c>
       <c r="M3" s="4">
         <f>1.1/1.04</f>
@@ -2193,7 +2194,7 @@
         <v>175497</v>
       </c>
       <c r="L4" s="3">
-        <v>21215</v>
+        <v>15334</v>
       </c>
       <c r="M4" s="4">
         <f>1.1/1.04</f>
@@ -2279,7 +2280,6 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
-      <c r="J9" s="3"/>
       <c r="M9" s="18"/>
       <c r="N9" s="15"/>
       <c r="O9" s="8"/>
@@ -2287,7 +2287,6 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D10" s="4"/>
-      <c r="J10" s="3"/>
       <c r="N10" s="15"/>
       <c r="O10" s="8"/>
       <c r="Q10" s="8"/>
@@ -2297,10 +2296,6 @@
       <c r="E11" s="17"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L13" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,10 +2308,10 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2431,10 +2426,10 @@
         <v>6007653.6288199332</v>
       </c>
       <c r="H2" s="4">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I2" s="4">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="J2" s="3">
         <v>237485</v>
@@ -2443,7 +2438,7 @@
         <v>237485</v>
       </c>
       <c r="L2" s="3">
-        <v>13520</v>
+        <v>15334</v>
       </c>
       <c r="M2" s="4">
         <f>1.1/1.04</f>
@@ -2502,10 +2497,10 @@
         <v>874281.88973430567</v>
       </c>
       <c r="H3" s="4">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I3" s="4">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="J3" s="3">
         <v>56547</v>
@@ -2514,7 +2509,7 @@
         <v>56547</v>
       </c>
       <c r="L3" s="3">
-        <v>13266</v>
+        <v>15334</v>
       </c>
       <c r="M3" s="4">
         <f>1.1/1.04</f>
@@ -2573,10 +2568,10 @@
         <v>2150843.5471125906</v>
       </c>
       <c r="H4" s="4">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I4" s="4">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="J4" s="3">
         <v>175497</v>
@@ -2585,7 +2580,7 @@
         <v>175497</v>
       </c>
       <c r="L4" s="3">
-        <v>9134</v>
+        <v>15334</v>
       </c>
       <c r="M4" s="4">
         <f>1.1/1.04</f>
@@ -2696,13 +2691,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2817,10 +2812,10 @@
         <v>6007653.6288199332</v>
       </c>
       <c r="H2" s="4">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I2" s="4">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J2" s="3">
         <v>237485</v>
@@ -2829,7 +2824,7 @@
         <v>237485</v>
       </c>
       <c r="L2" s="3">
-        <v>13520</v>
+        <v>21215</v>
       </c>
       <c r="M2" s="4">
         <f>1.1/1.04</f>
@@ -2888,10 +2883,10 @@
         <v>874281.88973430567</v>
       </c>
       <c r="H3" s="4">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I3" s="4">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J3" s="3">
         <v>56547</v>
@@ -2900,7 +2895,7 @@
         <v>56547</v>
       </c>
       <c r="L3" s="3">
-        <v>13266</v>
+        <v>21215</v>
       </c>
       <c r="M3" s="4">
         <f>1.1/1.04</f>
@@ -2959,10 +2954,10 @@
         <v>2150843.5471125906</v>
       </c>
       <c r="H4" s="4">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I4" s="4">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3">
         <v>175497</v>
@@ -2971,7 +2966,7 @@
         <v>175497</v>
       </c>
       <c r="L4" s="3">
-        <v>9134</v>
+        <v>21215</v>
       </c>
       <c r="M4" s="4">
         <f>1.1/1.04</f>
@@ -3057,6 +3052,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
+      <c r="J9" s="3"/>
       <c r="M9" s="18"/>
       <c r="N9" s="15"/>
       <c r="O9" s="8"/>
@@ -3064,6 +3060,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D10" s="4"/>
+      <c r="J10" s="3"/>
       <c r="N10" s="15"/>
       <c r="O10" s="8"/>
       <c r="Q10" s="8"/>
@@ -3073,6 +3070,402 @@
       <c r="E11" s="17"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L13" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="20" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" style="2" customWidth="1"/>
+    <col min="20" max="21" width="14.83203125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2050</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4240888</v>
+      </c>
+      <c r="G2" s="11">
+        <f>F2*(1+1%)^(C2-B2)</f>
+        <v>6007653.6288199332</v>
+      </c>
+      <c r="H2" s="4">
+        <v>73</v>
+      </c>
+      <c r="I2" s="4">
+        <v>73</v>
+      </c>
+      <c r="J2" s="3">
+        <v>237485</v>
+      </c>
+      <c r="K2" s="3">
+        <v>237485</v>
+      </c>
+      <c r="L2" s="3">
+        <v>21215</v>
+      </c>
+      <c r="M2" s="4">
+        <f>1.1/1.04</f>
+        <v>1.0576923076923077</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="12">
+        <f>1.6191</f>
+        <v>1.6191</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2050</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>617168</v>
+      </c>
+      <c r="G3" s="11">
+        <f>F3*(1+1%)^(C3-B3)</f>
+        <v>874281.88973430567</v>
+      </c>
+      <c r="H3" s="4">
+        <v>73</v>
+      </c>
+      <c r="I3" s="4">
+        <v>73</v>
+      </c>
+      <c r="J3" s="3">
+        <v>56547</v>
+      </c>
+      <c r="K3" s="3">
+        <v>56547</v>
+      </c>
+      <c r="L3" s="3">
+        <v>21215</v>
+      </c>
+      <c r="M3" s="4">
+        <f>1.1/1.04</f>
+        <v>1.0576923076923077</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="12">
+        <f t="shared" ref="Q3:Q4" si="0">1.6191</f>
+        <v>1.6191</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2050</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1518311</v>
+      </c>
+      <c r="G4" s="11">
+        <f>F4*(1+1%)^(C4-B4)</f>
+        <v>2150843.5471125906</v>
+      </c>
+      <c r="H4" s="4">
+        <v>73</v>
+      </c>
+      <c r="I4" s="4">
+        <v>73</v>
+      </c>
+      <c r="J4" s="3">
+        <v>175497</v>
+      </c>
+      <c r="K4" s="3">
+        <v>175497</v>
+      </c>
+      <c r="L4" s="3">
+        <v>21215</v>
+      </c>
+      <c r="M4" s="4">
+        <f>1.1/1.04</f>
+        <v>1.0576923076923077</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" si="0"/>
+        <v>1.6191</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C6" s="7"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C7" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="6"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D11" s="4"/>
+      <c r="E11" s="17"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L13" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scenarios.xlsx
+++ b/Scenarios.xlsx
@@ -240,16 +240,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>68385</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166078</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>553295</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>73714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>679012</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>160217</xdr:rowOff>
+      <xdr:colOff>552013</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -272,8 +272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="674077" y="3038232"/>
-          <a:ext cx="7908243" cy="3276600"/>
+          <a:off x="553295" y="5373078"/>
+          <a:ext cx="7930445" cy="3134503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -285,15 +285,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>898769</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
+      <xdr:colOff>194495</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>37300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1305577</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>195383</xdr:rowOff>
+      <xdr:colOff>601303</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,8 +316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8802077" y="3048000"/>
-          <a:ext cx="7792346" cy="2891691"/>
+          <a:off x="8126222" y="2392573"/>
+          <a:ext cx="7772808" cy="2767355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -329,15 +329,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>117232</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>68385</xdr:rowOff>
+      <xdr:colOff>290415</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>79930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>608038</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>84991</xdr:rowOff>
+      <xdr:colOff>781221</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>96536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -360,8 +360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="722924" y="6633308"/>
-          <a:ext cx="12028268" cy="6991837"/>
+          <a:off x="902324" y="12837657"/>
+          <a:ext cx="12036261" cy="6689879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -372,16 +372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>605691</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>454598</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1340624</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>61545</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1143850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -404,8 +404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12748845" y="7590692"/>
-          <a:ext cx="6791856" cy="4574930"/>
+          <a:off x="15752325" y="7640581"/>
+          <a:ext cx="6785252" cy="4379545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -416,16 +416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>214923</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1046196</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180754</xdr:rowOff>
+      <xdr:rowOff>42207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>719992</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
+      <xdr:colOff>27265</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>116342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,12 +448,232 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17027769" y="3258062"/>
-          <a:ext cx="5077069" cy="4391246"/>
+          <a:off x="16343923" y="2986298"/>
+          <a:ext cx="5077069" cy="4195862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962314</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>73890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="889000" y="9317181"/>
+          <a:ext cx="6527223" cy="3121891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1131454</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>45028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7585363" y="8959273"/>
+          <a:ext cx="6959023" cy="3843482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166583</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>822283</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="774369" y="2421247"/>
+          <a:ext cx="6479557" cy="2788227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1360632</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>77931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8589818" y="5414818"/>
+          <a:ext cx="6521450" cy="2710295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -760,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
